--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3617932.075472459</v>
+        <v>3615069.606372334</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11309886.53027066</v>
+        <v>11309886.53027065</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7709888.316604209</v>
+        <v>7709888.31660421</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50.48273419507654</v>
+        <v>37.58914653731197</v>
       </c>
       <c r="S2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="U2" t="n">
-        <v>18.28182508062843</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,76 +735,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>44.46519227902342</v>
       </c>
       <c r="E3" t="n">
-        <v>44.4651922790234</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="G3" t="n">
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,73 +814,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.386866521745219</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="E4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="F4" t="n">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>8.386866521745231</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,58 +899,58 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>32.22184835001295</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25.3458026083015</v>
+      </c>
+      <c r="T5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,73 +975,73 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>47.3837968773324</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="E6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>47.38379687733241</v>
+      </c>
+      <c r="V6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="F6" t="n">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,52 +1060,52 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="R7" t="n">
+        <v>53.79631798062264</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>13.74224000600998</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>53.79631798062264</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.80371436173801</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="H8" t="n">
-        <v>170.1331892653152</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.70610478157279</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>170.1331892653152</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>170.1331892653152</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>73.46744821986739</v>
+        <v>142.9772673631776</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.96033322209647</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>170.1331892653152</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>50.36049712271159</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>99.49281598217732</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>143.6956798924743</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983115977</v>
+        <v>29.85685983116006</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>19.79234811664746</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>170.1331892653152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>58.24570521548608</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>135.5795121770523</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.799772605716619</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038638</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>141.888808295738</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>94.64226186542875</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>163.1485391341856</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D28" t="n">
-        <v>3.006892987834117</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083736</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.92847288552876</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>4.019807611472022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>186.7624964458364</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>48.85497112745762</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>35.19779014108431</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>73.93222849083736</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.48646439055056</v>
+        <v>61.97678028791721</v>
       </c>
       <c r="C2" t="n">
-        <v>30.48646439055056</v>
+        <v>61.97678028791721</v>
       </c>
       <c r="D2" t="n">
-        <v>30.48646439055056</v>
+        <v>61.97678028791721</v>
       </c>
       <c r="E2" t="n">
-        <v>30.48646439055056</v>
+        <v>61.97678028791721</v>
       </c>
       <c r="F2" t="n">
-        <v>23.54096364134708</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="G2" t="n">
-        <v>8.177103637477007</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H2" t="n">
-        <v>8.177103637477007</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I2" t="n">
-        <v>8.177103637477007</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J2" t="n">
         <v>4.038618735606123</v>
       </c>
       <c r="K2" t="n">
-        <v>54.01652558873189</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="L2" t="n">
-        <v>101.9751230740546</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="M2" t="n">
         <v>101.9751230740546</v>
       </c>
       <c r="N2" t="n">
-        <v>101.9751230740546</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="O2" t="n">
         <v>151.9530299271804</v>
@@ -4352,28 +4352,28 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R2" t="n">
-        <v>150.9382759771985</v>
+        <v>163.9621018941324</v>
       </c>
       <c r="S2" t="n">
-        <v>99.94561517409093</v>
+        <v>163.9621018941324</v>
       </c>
       <c r="T2" t="n">
-        <v>48.95295437098331</v>
+        <v>112.9694410910248</v>
       </c>
       <c r="U2" t="n">
-        <v>30.48646439055056</v>
+        <v>61.97678028791721</v>
       </c>
       <c r="V2" t="n">
-        <v>30.48646439055056</v>
+        <v>61.97678028791721</v>
       </c>
       <c r="W2" t="n">
-        <v>30.48646439055056</v>
+        <v>61.97678028791721</v>
       </c>
       <c r="X2" t="n">
-        <v>30.48646439055056</v>
+        <v>61.97678028791721</v>
       </c>
       <c r="Y2" t="n">
-        <v>30.48646439055056</v>
+        <v>61.97678028791721</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.9309367803062</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="C3" t="n">
-        <v>201.9309367803062</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="D3" t="n">
-        <v>201.9309367803062</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E3" t="n">
-        <v>157.016601144929</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F3" t="n">
-        <v>106.0239403418214</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I3" t="n">
         <v>4.038618735606123</v>
@@ -4410,22 +4410,22 @@
         <v>7.929436376304878</v>
       </c>
       <c r="K3" t="n">
-        <v>7.929436376304878</v>
+        <v>57.90734322943065</v>
       </c>
       <c r="L3" t="n">
-        <v>7.929436376304878</v>
+        <v>57.90734322943065</v>
       </c>
       <c r="M3" t="n">
-        <v>57.90734322943065</v>
+        <v>107.8852500825564</v>
       </c>
       <c r="N3" t="n">
-        <v>57.90734322943065</v>
+        <v>157.8631569356822</v>
       </c>
       <c r="O3" t="n">
-        <v>101.9751230740546</v>
+        <v>157.8631569356822</v>
       </c>
       <c r="P3" t="n">
-        <v>151.9530299271804</v>
+        <v>157.8631569356822</v>
       </c>
       <c r="Q3" t="n">
         <v>201.9309367803062</v>
@@ -4440,19 +4440,19 @@
         <v>201.9309367803062</v>
       </c>
       <c r="U3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="V3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="W3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="X3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="Y3" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.016601144929</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="C4" t="n">
-        <v>157.016601144929</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="D4" t="n">
-        <v>106.0239403418214</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E4" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F4" t="n">
         <v>4.038618735606123</v>
@@ -4510,28 +4510,28 @@
         <v>165.4881834901262</v>
       </c>
       <c r="R4" t="n">
-        <v>165.4881834901262</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="S4" t="n">
-        <v>165.4881834901262</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="T4" t="n">
-        <v>165.4881834901262</v>
+        <v>63.50286188391095</v>
       </c>
       <c r="U4" t="n">
-        <v>165.4881834901262</v>
+        <v>63.50286188391095</v>
       </c>
       <c r="V4" t="n">
-        <v>165.4881834901262</v>
+        <v>63.50286188391095</v>
       </c>
       <c r="W4" t="n">
-        <v>165.4881834901262</v>
+        <v>12.51020108080333</v>
       </c>
       <c r="X4" t="n">
-        <v>165.4881834901262</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.4881834901262</v>
+        <v>4.038618735606123</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160.8455567905485</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="C5" t="n">
-        <v>160.8455567905485</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="D5" t="n">
-        <v>106.5058416586064</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="E5" t="n">
-        <v>106.5058416586064</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="F5" t="n">
         <v>73.95852009293679</v>
@@ -4559,7 +4559,7 @@
         <v>58.64342057039187</v>
       </c>
       <c r="H5" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4571,16 +4571,16 @@
         <v>4.303705438449811</v>
       </c>
       <c r="L5" t="n">
+        <v>4.303705438449811</v>
+      </c>
+      <c r="M5" t="n">
         <v>57.56206023926622</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>110.8204150400826</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>164.078769840899</v>
-      </c>
-      <c r="O5" t="n">
-        <v>215.1852719224906</v>
       </c>
       <c r="P5" t="n">
         <v>215.1852719224906</v>
@@ -4589,28 +4589,28 @@
         <v>215.1852719224906</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S5" t="n">
-        <v>160.8455567905485</v>
+        <v>189.5834511060244</v>
       </c>
       <c r="T5" t="n">
-        <v>160.8455567905485</v>
+        <v>135.2437359740823</v>
       </c>
       <c r="U5" t="n">
-        <v>160.8455567905485</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="V5" t="n">
-        <v>160.8455567905485</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="W5" t="n">
-        <v>160.8455567905485</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="X5" t="n">
-        <v>160.8455567905485</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="Y5" t="n">
-        <v>160.8455567905485</v>
+        <v>80.90402084214027</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215.1852719224906</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="C6" t="n">
-        <v>167.322850834276</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="D6" t="n">
-        <v>112.9831357023339</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="E6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="F6" t="n">
         <v>4.303705438449811</v>
@@ -4644,22 +4644,22 @@
         <v>4.303705438449811</v>
       </c>
       <c r="J6" t="n">
-        <v>4.303705438449811</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="K6" t="n">
-        <v>57.56206023926622</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="L6" t="n">
-        <v>108.6685623208577</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="M6" t="n">
-        <v>108.6685623208577</v>
+        <v>117.1270353570795</v>
       </c>
       <c r="N6" t="n">
-        <v>108.6685623208577</v>
+        <v>117.1270353570795</v>
       </c>
       <c r="O6" t="n">
-        <v>108.6685623208577</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="P6" t="n">
         <v>161.9269171216741</v>
@@ -4671,25 +4671,25 @@
         <v>215.1852719224906</v>
       </c>
       <c r="S6" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="T6" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="U6" t="n">
-        <v>215.1852719224906</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="V6" t="n">
-        <v>215.1852719224906</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="W6" t="n">
-        <v>215.1852719224906</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="X6" t="n">
-        <v>215.1852719224906</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="Y6" t="n">
-        <v>215.1852719224906</v>
+        <v>4.303705438449811</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.52447108151307</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="C7" t="n">
-        <v>72.52447108151307</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="D7" t="n">
-        <v>72.52447108151307</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="E7" t="n">
-        <v>18.18475594957101</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="F7" t="n">
-        <v>18.18475594957101</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="G7" t="n">
-        <v>18.18475594957101</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H7" t="n">
-        <v>18.18475594957101</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I7" t="n">
-        <v>18.18475594957101</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="J7" t="n">
-        <v>18.18475594957101</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="K7" t="n">
         <v>4.303705438449811</v>
@@ -4744,31 +4744,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="R7" t="n">
-        <v>181.2039013453972</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="S7" t="n">
-        <v>126.8641862134551</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="T7" t="n">
-        <v>126.8641862134551</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="U7" t="n">
-        <v>72.52447108151307</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="V7" t="n">
-        <v>72.52447108151307</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="W7" t="n">
-        <v>72.52447108151307</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="X7" t="n">
-        <v>72.52447108151307</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.52447108151307</v>
+        <v>4.303705438449811</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>206.3510080389673</v>
+        <v>364.2595685476296</v>
       </c>
       <c r="C8" t="n">
-        <v>206.3510080389673</v>
+        <v>364.2595685476296</v>
       </c>
       <c r="D8" t="n">
-        <v>206.3510080389673</v>
+        <v>364.2595685476296</v>
       </c>
       <c r="E8" t="n">
-        <v>206.3510080389673</v>
+        <v>192.4078622190291</v>
       </c>
       <c r="F8" t="n">
-        <v>199.4055072897638</v>
+        <v>185.4623614698257</v>
       </c>
       <c r="G8" t="n">
-        <v>185.4623614698264</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="H8" t="n">
-        <v>13.61065514122522</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122522</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="J8" t="n">
-        <v>127.7362978821346</v>
+        <v>127.736297882134</v>
       </c>
       <c r="K8" t="n">
-        <v>127.7362978821346</v>
+        <v>296.1681552547953</v>
       </c>
       <c r="L8" t="n">
-        <v>273.4478460501405</v>
+        <v>296.9509297514133</v>
       </c>
       <c r="M8" t="n">
-        <v>305.9882709462294</v>
+        <v>465.3827871240746</v>
       </c>
       <c r="N8" t="n">
-        <v>343.6690423159367</v>
+        <v>503.0635584937806</v>
       </c>
       <c r="O8" t="n">
-        <v>512.1008996885988</v>
+        <v>525.3091811498659</v>
       </c>
       <c r="P8" t="n">
-        <v>680.5327570612609</v>
+        <v>680.5327570612579</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.5327570612609</v>
+        <v>680.5327570612579</v>
       </c>
       <c r="R8" t="n">
-        <v>624.2639643526015</v>
+        <v>680.5327570612579</v>
       </c>
       <c r="S8" t="n">
-        <v>452.4122580240003</v>
+        <v>680.5327570612579</v>
       </c>
       <c r="T8" t="n">
-        <v>280.560551695399</v>
+        <v>680.5327570612579</v>
       </c>
       <c r="U8" t="n">
-        <v>280.560551695399</v>
+        <v>680.5327570612579</v>
       </c>
       <c r="V8" t="n">
-        <v>280.560551695399</v>
+        <v>508.6810507326575</v>
       </c>
       <c r="W8" t="n">
-        <v>280.560551695399</v>
+        <v>508.6810507326575</v>
       </c>
       <c r="X8" t="n">
-        <v>280.560551695399</v>
+        <v>508.6810507326575</v>
       </c>
       <c r="Y8" t="n">
-        <v>206.3510080389673</v>
+        <v>364.2595685476296</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>640.1687841096483</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="C9" t="n">
-        <v>468.317077781047</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="D9" t="n">
-        <v>319.3826681197958</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="E9" t="n">
-        <v>160.1452131143402</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="F9" t="n">
-        <v>13.61065514122522</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="G9" t="n">
-        <v>13.61065514122522</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="H9" t="n">
-        <v>13.61065514122522</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122522</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="J9" t="n">
-        <v>13.61065514122522</v>
+        <v>87.8897264357841</v>
       </c>
       <c r="K9" t="n">
-        <v>182.0425125138873</v>
+        <v>256.3215838084454</v>
       </c>
       <c r="L9" t="n">
-        <v>350.4743698865494</v>
+        <v>291.5577349675181</v>
       </c>
       <c r="M9" t="n">
-        <v>410.9501644795754</v>
+        <v>459.9895923401795</v>
       </c>
       <c r="N9" t="n">
-        <v>487.4352183198831</v>
+        <v>613.7938852597993</v>
       </c>
       <c r="O9" t="n">
-        <v>655.8670756925451</v>
+        <v>661.5429717568371</v>
       </c>
       <c r="P9" t="n">
-        <v>680.5327570612609</v>
+        <v>680.5327570612579</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.5327570612609</v>
+        <v>680.5327570612579</v>
       </c>
       <c r="R9" t="n">
-        <v>680.5327570612609</v>
+        <v>629.6635680484179</v>
       </c>
       <c r="S9" t="n">
-        <v>680.5327570612609</v>
+        <v>529.1657741270267</v>
       </c>
       <c r="T9" t="n">
-        <v>680.5327570612609</v>
+        <v>357.3140677984262</v>
       </c>
       <c r="U9" t="n">
-        <v>680.5327570612609</v>
+        <v>357.3140677984262</v>
       </c>
       <c r="V9" t="n">
-        <v>680.5327570612609</v>
+        <v>185.4623614698257</v>
       </c>
       <c r="W9" t="n">
-        <v>680.5327570612609</v>
+        <v>185.4623614698257</v>
       </c>
       <c r="X9" t="n">
-        <v>680.5327570612609</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="Y9" t="n">
-        <v>680.5327570612609</v>
+        <v>13.61065514122516</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.5303356338644</v>
+        <v>161.5237487236183</v>
       </c>
       <c r="C10" t="n">
-        <v>458.5303356338644</v>
+        <v>161.5237487236183</v>
       </c>
       <c r="D10" t="n">
-        <v>308.4136962215287</v>
+        <v>161.5237487236183</v>
       </c>
       <c r="E10" t="n">
-        <v>160.5006026391356</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="F10" t="n">
-        <v>13.61065514122522</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="G10" t="n">
-        <v>13.61065514122522</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="H10" t="n">
-        <v>13.61065514122522</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="I10" t="n">
-        <v>13.61065514122522</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122522</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724058068</v>
+        <v>68.90447724058021</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340638</v>
+        <v>195.1879671340628</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694274</v>
+        <v>338.7253240694258</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004886</v>
+        <v>484.2842999004865</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689181</v>
+        <v>602.7152779689156</v>
       </c>
       <c r="P10" t="n">
-        <v>680.5327570612609</v>
+        <v>680.5327570612579</v>
       </c>
       <c r="Q10" t="n">
-        <v>650.3743127873621</v>
+        <v>650.3743127873589</v>
       </c>
       <c r="R10" t="n">
-        <v>650.3743127873621</v>
+        <v>650.3743127873589</v>
       </c>
       <c r="S10" t="n">
-        <v>650.3743127873621</v>
+        <v>650.3743127873589</v>
       </c>
       <c r="T10" t="n">
-        <v>650.3743127873621</v>
+        <v>478.5226064587584</v>
       </c>
       <c r="U10" t="n">
-        <v>650.3743127873621</v>
+        <v>306.670900130158</v>
       </c>
       <c r="V10" t="n">
-        <v>650.3743127873621</v>
+        <v>306.670900130158</v>
       </c>
       <c r="W10" t="n">
-        <v>650.3743127873621</v>
+        <v>306.670900130158</v>
       </c>
       <c r="X10" t="n">
-        <v>630.3820419624657</v>
+        <v>306.670900130158</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.5303356338644</v>
+        <v>306.670900130158</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,31 +5057,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.7594328861248</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C13" t="n">
-        <v>390.823249958218</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458823</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2023.366912656562</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.29168600076</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,22 +5288,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851783</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703778</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>634.334587849125</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>486.4214942667319</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C22" t="n">
-        <v>634.334587849125</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2179484367892</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>336.3048548543961</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>189.4149073564858</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,16 +6069,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,22 +6251,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,13 +6297,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
         <v>427.7414352191925</v>
@@ -6315,16 +6315,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
         <v>261.0127623330919</v>
@@ -6373,13 +6373,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,7 +6497,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6540,16 +6540,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.7594328861248</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C31" t="n">
-        <v>390.823249958218</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D31" t="n">
-        <v>240.7066105458822</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2425.823211978716</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2023.366912656562</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.29168600076</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6701,25 +6701,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1245.052379339893</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1017.062828441876</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>796.270249298346</v>
       </c>
     </row>
     <row r="38">
@@ -7151,40 +7151,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,13 +7205,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746419</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7649,19 +7649,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,16 +7679,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,22 +7728,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>258.8041889468121</v>
+        <v>256.7644825146879</v>
       </c>
       <c r="L2" t="n">
-        <v>269.6097064983847</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>214.1012135983212</v>
+        <v>264.5839477933977</v>
       </c>
       <c r="N2" t="n">
-        <v>212.9051825663978</v>
+        <v>263.3879167614743</v>
       </c>
       <c r="O2" t="n">
-        <v>264.993021668346</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
         <v>268.4117974997384</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>180.3309306186853</v>
       </c>
       <c r="L3" t="n">
         <v>127.8064787429921</v>
@@ -8067,16 +8067,16 @@
         <v>180.0744745527947</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>168.9501955242219</v>
       </c>
       <c r="O3" t="n">
-        <v>175.3317291273678</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
-        <v>175.0047203318838</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1458149818875</v>
+        <v>178.1759897207746</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>267.3451747559029</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
         <v>259.4212368511231</v>
@@ -8228,10 +8228,10 @@
         <v>258.0880505088102</v>
       </c>
       <c r="O5" t="n">
-        <v>257.9995802262195</v>
+        <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>262.6100926964995</v>
       </c>
       <c r="Q5" t="n">
         <v>207.1020630664798</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>179.4738158616228</v>
       </c>
       <c r="L6" t="n">
-        <v>173.8211892316314</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>176.8437648107177</v>
       </c>
       <c r="N6" t="n">
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>169.9260245103768</v>
       </c>
       <c r="P6" t="n">
-        <v>173.3862381384502</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
         <v>184.1624432744798</v>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>29.40848459605166</v>
+        <v>199.5416738613671</v>
       </c>
       <c r="L8" t="n">
-        <v>146.3927006781683</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>137.2640732086604</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>147.6628633500762</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>185.8047817831485</v>
+        <v>172.4630833374223</v>
       </c>
       <c r="Q8" t="n">
-        <v>60.42805331804476</v>
+        <v>60.42805331804558</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>51.06167039640953</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>178.4614495570663</v>
+        <v>178.4614495570662</v>
       </c>
       <c r="L9" t="n">
-        <v>134.5411173874632</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>109.0465280602387</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>78.10024149425573</v>
       </c>
       <c r="O9" t="n">
-        <v>121.9017887632558</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5.733228347771963</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>37.60103822001879</v>
+        <v>37.60103822001932</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11066,13 +11066,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>45.44677382459227</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>3.5322397271932</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>70.88187642684009</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>123.3744592024054</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D28" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>45.44677382459292</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>144.5956654067403</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>99.76050189075457</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>93.31459260779047</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>687974.0119227575</v>
+        <v>687974.0119227576</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652426.6633671406</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>652426.6633671406</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055059</v>
@@ -26347,13 +26347,13 @@
         <v>766789.2697055056</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055062</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.3975543818</v>
+        <v>325486.3975543799</v>
       </c>
       <c r="E3" t="n">
-        <v>1098807.963756735</v>
+        <v>1098807.963756736</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573655</v>
+        <v>13208.50450573661</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317184983</v>
+        <v>852.8104317184398</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031413</v>
+        <v>29443.81509031394</v>
       </c>
       <c r="M3" t="n">
-        <v>249845.7249299112</v>
+        <v>249845.7249299113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,28 +26421,28 @@
         <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>306360.6503278896</v>
+        <v>306360.65032789</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719655</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171961</v>
+        <v>7507.368461719696</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719689</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719696</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719688</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
@@ -26451,10 +26451,10 @@
         <v>7507.36846171968</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719672</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26473,7 +26473,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.52571241496</v>
+        <v>52100.52571241488</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>311486.1775883242</v>
+        <v>311486.1775883241</v>
       </c>
       <c r="C6" t="n">
-        <v>341043.7878864461</v>
+        <v>341043.7878864465</v>
       </c>
       <c r="D6" t="n">
-        <v>96042.10777638332</v>
+        <v>96042.10777638474</v>
       </c>
       <c r="E6" t="n">
-        <v>-440648.5923368556</v>
+        <v>-440683.3302622926</v>
       </c>
       <c r="F6" t="n">
-        <v>658159.3714198794</v>
+        <v>658124.6334944431</v>
       </c>
       <c r="G6" t="n">
-        <v>658159.3714198787</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="H6" t="n">
-        <v>658159.3714198793</v>
+        <v>658124.6334944435</v>
       </c>
       <c r="I6" t="n">
-        <v>658159.3714198793</v>
+        <v>658124.6334944433</v>
       </c>
       <c r="J6" t="n">
-        <v>644950.8669141426</v>
+        <v>644916.1289887066</v>
       </c>
       <c r="K6" t="n">
-        <v>657306.5609881603</v>
+        <v>657271.8230627249</v>
       </c>
       <c r="L6" t="n">
-        <v>628715.556329565</v>
+        <v>628680.8184041296</v>
       </c>
       <c r="M6" t="n">
-        <v>408313.6464899676</v>
+        <v>408278.9085645318</v>
       </c>
       <c r="N6" t="n">
-        <v>658159.3714198788</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="O6" t="n">
-        <v>658159.371419879</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="P6" t="n">
-        <v>658159.371419879</v>
+        <v>658124.6334944437</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.882009407514</v>
+        <v>372.8820094075121</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,16 +26793,16 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.1331892653152</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26963,19 +26963,19 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883886</v>
+        <v>337.8607486883868</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0934909341599</v>
+        <v>995.0934909341617</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846926</v>
+        <v>116.3368712846918</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.575098834333</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507632</v>
+        <v>50.48273419507655</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785546371</v>
+        <v>3.313583785546143</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846926</v>
+        <v>116.3368712846918</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834333</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846926</v>
+        <v>116.3368712846918</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834333</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>364.7274872087548</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27400,7 +27400,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>93.57486856939363</v>
+        <v>106.4684562271582</v>
       </c>
       <c r="S2" t="n">
-        <v>156.4291245048363</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>172.208126091823</v>
       </c>
       <c r="U2" t="n">
-        <v>233.0564265383038</v>
+        <v>200.8555174238556</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>116.0504494547908</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>102.9798732856153</v>
       </c>
       <c r="E3" t="n">
-        <v>113.1798881763775</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>94.58647819830733</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>86.81128248461911</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>37.20960569321311</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>175.4553912751407</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>155.1999615822278</v>
       </c>
     </row>
     <row r="4">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.4451136601921</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>98.13273882313581</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>95.95122845149263</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>94.9383138278547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
@@ -27582,13 +27582,13 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>124.9446868416198</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>177.2855390059461</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>236.0402641415145</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>217.3227888672919</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>300.8867236400603</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>374.6541973916985</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>284.2366289136782</v>
       </c>
       <c r="I5" t="n">
-        <v>151.2518041370232</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>87.22896370465668</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>180.4660379180963</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>168.683227789346</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>197.5380718081886</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27695,16 +27695,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>125.3247021109833</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>93.64874758401612</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>103.8487624747783</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>91.27289441276125</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27743,16 +27743,16 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>116.4876546407105</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>178.5526293648614</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>179.0042691688026</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>151.8863777966817</v>
       </c>
     </row>
     <row r="7">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>92.63764466594654</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27798,7 +27798,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>1.190010639702024</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>27.07751490248382</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>120.6574806831568</v>
       </c>
       <c r="S7" t="n">
-        <v>169.119693879324</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>213.9335134790258</v>
       </c>
       <c r="U7" t="n">
         <v>232.5192666616992</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>211.7971808069473</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>243.6705250964235</v>
       </c>
       <c r="H8" t="n">
-        <v>153.9897419807245</v>
+        <v>324.1229312460398</v>
       </c>
       <c r="I8" t="n">
-        <v>152.6847994490665</v>
+        <v>152.6847994490668</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>55.70610478157326</v>
       </c>
       <c r="S8" t="n">
-        <v>4.727890212895034</v>
+        <v>174.8610794782104</v>
       </c>
       <c r="T8" t="n">
-        <v>46.40068644482059</v>
+        <v>216.5338757101358</v>
       </c>
       <c r="U8" t="n">
         <v>251.2257310555647</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>157.6190692048204</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>312.7704904361862</v>
+        <v>243.260671292876</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>126.5728504277709</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>2.575309723000515</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.5414690675039</v>
       </c>
       <c r="H9" t="n">
-        <v>104.4893481542762</v>
+        <v>104.4893481542763</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642465</v>
+        <v>61.78225762642479</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271134</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.7854795015659</v>
+        <v>57.2926635193887</v>
       </c>
       <c r="T9" t="n">
-        <v>196.9319120283546</v>
+        <v>26.79872276304011</v>
       </c>
       <c r="U9" t="n">
         <v>225.8886157588888</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>62.66739788411078</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>35.63979593816299</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>36.13630028946301</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.31856917756</v>
       </c>
       <c r="H10" t="n">
-        <v>156.2488347172666</v>
+        <v>156.2488347172667</v>
       </c>
       <c r="I10" t="n">
-        <v>135.2292669416836</v>
+        <v>135.2292669416837</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712793</v>
+        <v>45.81978032712816</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.0593845160291</v>
+        <v>147.0593845160292</v>
       </c>
       <c r="S10" t="n">
         <v>212.2983224298542</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0725641098957</v>
+        <v>54.93937484458126</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2823524375328</v>
+        <v>116.1491631722183</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>205.9173072723897</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.45146408677957</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.49902315339704</v>
+        <v>1.499023153397032</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972744</v>
+        <v>15.35187086972736</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133944</v>
+        <v>57.79109012133915</v>
       </c>
       <c r="J8" t="n">
-        <v>127.2277163656321</v>
+        <v>127.2277163656315</v>
       </c>
       <c r="K8" t="n">
-        <v>190.6813664489289</v>
+        <v>190.6813664489279</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797036</v>
+        <v>236.5570962797024</v>
       </c>
       <c r="M8" t="n">
-        <v>263.2153492839282</v>
+        <v>263.2153492839269</v>
       </c>
       <c r="N8" t="n">
-        <v>267.4744488185175</v>
+        <v>267.4744488185162</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369257</v>
+        <v>252.5685373369244</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374363</v>
+        <v>215.5614032374352</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564047</v>
+        <v>161.8776365564039</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957689</v>
+        <v>94.16301315957642</v>
       </c>
       <c r="S8" t="n">
-        <v>34.15899010803508</v>
+        <v>34.15899010803491</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995545</v>
+        <v>6.561973853995513</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1199218522717632</v>
+        <v>0.1199218522717626</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067282</v>
+        <v>0.8020480957067242</v>
       </c>
       <c r="H9" t="n">
-        <v>7.746096082220244</v>
+        <v>7.746096082220205</v>
       </c>
       <c r="I9" t="n">
-        <v>27.61437522499043</v>
+        <v>27.61437522499029</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025717</v>
+        <v>75.77595627025678</v>
       </c>
       <c r="K9" t="n">
-        <v>129.513178682608</v>
+        <v>129.5131786826073</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577262</v>
+        <v>174.1464516577254</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270951</v>
+        <v>203.2206951270941</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250582</v>
+        <v>208.5993422250572</v>
       </c>
       <c r="O9" t="n">
-        <v>190.8276449465039</v>
+        <v>190.8276449465029</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319278</v>
+        <v>153.156008731927</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660027</v>
+        <v>102.3807358660022</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79733702993179</v>
+        <v>49.79733702993154</v>
       </c>
       <c r="S9" t="n">
-        <v>14.89769160227189</v>
+        <v>14.89769160227182</v>
       </c>
       <c r="T9" t="n">
-        <v>3.232816666467031</v>
+        <v>3.232816666467014</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596898</v>
+        <v>0.05276632208596872</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987956</v>
+        <v>0.6724101808987922</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172933</v>
+        <v>5.978337790172903</v>
       </c>
       <c r="I10" t="n">
-        <v>20.2212079855747</v>
+        <v>20.22120798557459</v>
       </c>
       <c r="J10" t="n">
-        <v>47.53939978954485</v>
+        <v>47.53939978954461</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078733</v>
+        <v>78.12183738078694</v>
       </c>
       <c r="L10" t="n">
-        <v>99.96905544017187</v>
+        <v>99.96905544017136</v>
       </c>
       <c r="M10" t="n">
-        <v>105.4033522657994</v>
+        <v>105.4033522657988</v>
       </c>
       <c r="N10" t="n">
-        <v>102.8970961369949</v>
+        <v>102.8970961369943</v>
       </c>
       <c r="O10" t="n">
-        <v>95.04212266013162</v>
+        <v>95.04212266013114</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979612</v>
+        <v>81.32495496979571</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.30518342053461</v>
+        <v>56.30518342053433</v>
       </c>
       <c r="R10" t="n">
-        <v>30.23400686114039</v>
+        <v>30.23400686114023</v>
       </c>
       <c r="S10" t="n">
-        <v>11.7182756071181</v>
+        <v>11.71827560711804</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385762</v>
+        <v>2.873025318385748</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03667691895811617</v>
+        <v>0.03667691895811599</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>502.2268148619681</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338196</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>397.6543049213403</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>253.6713445157999</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,19 +33260,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34699,19 +34699,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="L2" t="n">
-        <v>48.44302776295223</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>50.48273419507654</v>
@@ -34778,7 +34778,7 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>50.48273419507654</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O3" t="n">
-        <v>44.51290893396359</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.48273419507654</v>
+        <v>44.51290893396361</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>53.79631798062264</v>
@@ -34948,10 +34948,10 @@
         <v>53.79631798062264</v>
       </c>
       <c r="O5" t="n">
+        <v>53.79631798062264</v>
+      </c>
+      <c r="P5" t="n">
         <v>51.62272937534497</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="L6" t="n">
-        <v>51.62272937534495</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>45.25240582282282</v>
       </c>
       <c r="P6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>53.79631798062264</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>115.2784270110196</v>
+        <v>115.278427011019</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="L8" t="n">
-        <v>147.1833819878847</v>
+        <v>0.7906813097151542</v>
       </c>
       <c r="M8" t="n">
-        <v>32.86911605665543</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="N8" t="n">
-        <v>38.06138522192663</v>
+        <v>38.06138522192526</v>
       </c>
       <c r="O8" t="n">
-        <v>170.1331892653152</v>
+        <v>22.47032591523771</v>
       </c>
       <c r="P8" t="n">
-        <v>170.1331892653152</v>
+        <v>156.7914908195879</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>75.02936494399893</v>
       </c>
       <c r="K9" t="n">
-        <v>170.1331892653152</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="L9" t="n">
-        <v>170.1331892653152</v>
+        <v>35.5920718778512</v>
       </c>
       <c r="M9" t="n">
-        <v>61.08666120507678</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="N9" t="n">
-        <v>77.25763014172492</v>
+        <v>155.3578716359796</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1331892653152</v>
+        <v>48.23140050205848</v>
       </c>
       <c r="P9" t="n">
-        <v>24.9148296653695</v>
+        <v>19.18160131759677</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490447</v>
+        <v>55.85234555490409</v>
       </c>
       <c r="L10" t="n">
-        <v>127.559080700488</v>
+        <v>127.5590807004875</v>
       </c>
       <c r="M10" t="n">
-        <v>144.9872292276399</v>
+        <v>144.9872292276394</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162235</v>
+        <v>147.0292685162229</v>
       </c>
       <c r="O10" t="n">
-        <v>119.6272505741713</v>
+        <v>119.6272505741708</v>
       </c>
       <c r="P10" t="n">
-        <v>78.60351423468961</v>
+        <v>78.6035142346892</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.7309431539454</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>263.67989750701</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>122.3296324324666</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
